--- a/cta策略/result/螺纹/RSI_1d/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/RSI_1d/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.04409186457261094</v>
+        <v>-0.05455829213067243</v>
       </c>
       <c r="D2">
-        <v>0.03557595452769866</v>
+        <v>-0.6441227687724712</v>
       </c>
       <c r="E2">
-        <v>0.1459655866666389</v>
+        <v>-0.1269142404757941</v>
       </c>
       <c r="F2">
-        <v>0.3125</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
   </sheetData>
